--- a/Warrior-Pilgrims/Assets/Resources/Data/Status Effects/StatusEffectTemplate.xlsx
+++ b/Warrior-Pilgrims/Assets/Resources/Data/Status Effects/StatusEffectTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Games\GitHub\Warrior-Pilgrims\Warrior-Pilgrims\Assets\Resources\Data\Status Effects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40A1ED7-1D0D-4DD1-801E-C0DD50D2864D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AA6DAC-7897-4FE5-83A5-05CA0E586B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,10 +23,17 @@
   <externalReferences>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
-    <definedName name="StatModifiersForList">[2]!Table1[Name]</definedName>
-    <definedName name="StatusEffectTypesForList">[1]!Table1[StatusEffectType]</definedName>
+    <definedName name="DamagesForList">[3]!Table1[Name]</definedName>
+    <definedName name="HealingsForList">[4]!Table1[Name]</definedName>
+    <definedName name="Name">TurnMoveEffects!$B$1:$D$11</definedName>
+    <definedName name="StatModifiersForList">[1]!Table1[Name]</definedName>
+    <definedName name="StatusEffectTypesForList">[2]!Table1[StatusEffectType]</definedName>
+    <definedName name="TurnMovesForList">[5]!Table1[Name]</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>Name</t>
   </si>
@@ -75,14 +82,107 @@
     <t>Stat</t>
   </si>
   <si>
-    <t>Small Dexterity Bonus</t>
+    <t>Turn 1 Damage</t>
+  </si>
+  <si>
+    <t>Turn 2 Damage</t>
+  </si>
+  <si>
+    <t>Turn 3 Damage</t>
+  </si>
+  <si>
+    <t>Turn 4 Damage</t>
+  </si>
+  <si>
+    <t>Turn 5 Damage</t>
+  </si>
+  <si>
+    <t>Turn 6 Damage</t>
+  </si>
+  <si>
+    <t>Turn 7 Damage</t>
+  </si>
+  <si>
+    <t>Turn 8 Damage</t>
+  </si>
+  <si>
+    <t>Turn 9 Damage</t>
+  </si>
+  <si>
+    <t>Turn 10 Damage</t>
+  </si>
+  <si>
+    <t>Damage Type</t>
+  </si>
+  <si>
+    <t>Turn 1 Healing</t>
+  </si>
+  <si>
+    <t>Turn 2 Healing</t>
+  </si>
+  <si>
+    <t>Turn 3 Healing</t>
+  </si>
+  <si>
+    <t>Turn 4 Healing</t>
+  </si>
+  <si>
+    <t>Turn 5 Healing</t>
+  </si>
+  <si>
+    <t>Turn 6 Healing</t>
+  </si>
+  <si>
+    <t>Turn 7 Healing</t>
+  </si>
+  <si>
+    <t>Turn 8 Healing</t>
+  </si>
+  <si>
+    <t>Turn 9 Healing</t>
+  </si>
+  <si>
+    <t>Turn 10 Healing</t>
+  </si>
+  <si>
+    <t>Turn 1 Move</t>
+  </si>
+  <si>
+    <t>Turn 2 Move</t>
+  </si>
+  <si>
+    <t>Turn 3 Move</t>
+  </si>
+  <si>
+    <t>Turn 4 Move</t>
+  </si>
+  <si>
+    <t>Turn 5 Move</t>
+  </si>
+  <si>
+    <t>Turn 6 Move</t>
+  </si>
+  <si>
+    <t>Turn 7 Move</t>
+  </si>
+  <si>
+    <t>Turn 8 Move</t>
+  </si>
+  <si>
+    <t>Turn 9 Move</t>
+  </si>
+  <si>
+    <t>Turn 10 Move</t>
+  </si>
+  <si>
+    <t>Move Type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,16 +196,67 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -113,18 +264,163 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Calculation" xfId="3" builtinId="22"/>
+    <cellStyle name="Input" xfId="2" builtinId="20"/>
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="18">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF7F7F7F"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF7F7F7F"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -179,6 +475,54 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{429417F3-DA08-43CB-B643-5AD8836504B3}" name="Table3" displayName="Table3" ref="A1:D2" totalsRowShown="0">
   <autoFilter ref="A1:D2" xr:uid="{429417F3-DA08-43CB-B643-5AD8836504B3}"/>
@@ -193,10 +537,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{30DD7DDE-C17D-494F-A26C-32A85A202936}" name="Table2" displayName="Table2" ref="A1:A11" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{30DD7DDE-C17D-494F-A26C-32A85A202936}" name="Table2" displayName="Table2" ref="A1:A11" totalsRowShown="0" dataDxfId="8" dataCellStyle="Input">
   <autoFilter ref="A1:A11" xr:uid="{30DD7DDE-C17D-494F-A26C-32A85A202936}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{80B87D92-E827-41A5-BEC2-807FDD388A90}" name="StatusEffectTypes"/>
+    <tableColumn id="1" xr3:uid="{80B87D92-E827-41A5-BEC2-807FDD388A90}" name="StatusEffectTypes" dataDxfId="9" dataCellStyle="Input"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -206,15 +550,66 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{713AFA5E-DA33-4B88-8E2C-C2FC86A8F69C}" name="Table1" displayName="Table1" ref="A1:D11" totalsRowShown="0">
   <autoFilter ref="A1:D11" xr:uid="{713AFA5E-DA33-4B88-8E2C-C2FC86A8F69C}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F5048FC9-72AD-4471-BE5E-E923D8B7BDBD}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{69F66458-77F1-4CD3-A167-BDD47B021FBD}" name="Magnitude" dataDxfId="2">
-      <calculatedColumnFormula>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [2]!Table1[#This Row], 2, FALSE), "")</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{F5048FC9-72AD-4471-BE5E-E923D8B7BDBD}" name="Name" dataDxfId="7" dataCellStyle="Input"/>
+    <tableColumn id="2" xr3:uid="{69F66458-77F1-4CD3-A167-BDD47B021FBD}" name="Magnitude" dataDxfId="17" dataCellStyle="Calculation">
+      <calculatedColumnFormula>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [1]!Table1[#Data], 2, FALSE), "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{F4484970-4653-472C-AC0C-1229AC1AB71D}" name="Value" dataDxfId="1">
-      <calculatedColumnFormula>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [2]!Table1[#This Row],3, FALSE), "")</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{F4484970-4653-472C-AC0C-1229AC1AB71D}" name="Value" dataDxfId="16" dataCellStyle="Calculation">
+      <calculatedColumnFormula>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [1]!Table1[#Data],3, FALSE), "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00F9C162-CE32-485B-B86F-2DE5E4EC271A}" name="Stat" dataDxfId="0">
-      <calculatedColumnFormula>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [2]!Table1[#This Row],3, FALSE), "")</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{00F9C162-CE32-485B-B86F-2DE5E4EC271A}" name="Stat" dataDxfId="15" dataCellStyle="Calculation">
+      <calculatedColumnFormula>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [1]!Table1[#Data],4, FALSE), "")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7C693F8A-25EC-446D-B26E-957EA757D389}" name="Table15" displayName="Table15" ref="B1:E11" totalsRowShown="0">
+  <autoFilter ref="B1:E11" xr:uid="{7C693F8A-25EC-446D-B26E-957EA757D389}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{353039B7-B545-4F87-BE7A-6DFC48A8F520}" name="Name" dataDxfId="10" dataCellStyle="Input"/>
+    <tableColumn id="2" xr3:uid="{0D27F627-24AB-4261-AEE8-FF1B749F019D}" name="Damage Type" dataDxfId="14" dataCellStyle="Calculation">
+      <calculatedColumnFormula>IFERROR(VLOOKUP(Table15[[#This Row],[Name]], [3]!Table1[#Data], 2, FALSE), "")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{14B8DB8D-DDD3-45FF-91E4-C21561C33896}" name="Magnitude" dataDxfId="13" dataCellStyle="Calculation">
+      <calculatedColumnFormula>IFERROR(VLOOKUP(Table15[[#This Row],[Name]], [3]!Table1[#Data], 3, FALSE), "")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{86026B9A-BF3C-4A71-8F09-A649D5C29843}" name="Value" dataDxfId="12" dataCellStyle="Calculation">
+      <calculatedColumnFormula>IFERROR(VLOOKUP(Table15[[#This Row],[Name]], [3]!Table1[#Data],4, FALSE), "")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00DC8E4E-269D-48B9-A15C-2D9E1C45447E}" name="Table156" displayName="Table156" ref="B1:D11" totalsRowShown="0">
+  <autoFilter ref="B1:D11" xr:uid="{00DC8E4E-269D-48B9-A15C-2D9E1C45447E}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{8DA49D99-DD7D-49A4-8D72-49BB470F78A5}" name="Name" dataDxfId="11" dataCellStyle="Input"/>
+    <tableColumn id="2" xr3:uid="{D628B633-6099-4448-B528-7F96672ABD83}" name="Magnitude" dataCellStyle="Calculation">
+      <calculatedColumnFormula>IFERROR(VLOOKUP(Table156[[#This Row],[Name]], [3]!Table1[#Data], 2, FALSE), "")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{57CDC4AE-D901-4A7B-92BC-E68EA1C958C7}" name="Value" dataCellStyle="Calculation">
+      <calculatedColumnFormula>IFERROR(VLOOKUP(Table156[[#This Row],[Name]], [3]!Table1[#Data], 3, FALSE), "")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{6AA414E7-2412-4F41-9075-B229CFF47A5C}" name="Table8" displayName="Table8" ref="B1:D11" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+  <autoFilter ref="B1:D11" xr:uid="{6AA414E7-2412-4F41-9075-B229CFF47A5C}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{2038C780-ACB3-4AE5-BD67-8A95130A25FF}" name="Name" dataDxfId="3" dataCellStyle="Input"/>
+    <tableColumn id="2" xr3:uid="{3BD76238-F165-4E64-B839-272956C2FB7D}" name="Move Type" dataDxfId="1" dataCellStyle="Calculation">
+      <calculatedColumnFormula>IFERROR(VLOOKUP(Table8[[#This Row],[Name]], [5]!Table1[#Data], 2, FALSE), "")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{6379AC05-718E-4F1D-B0FD-BB82EDED740F}" name="Value" dataDxfId="0" dataCellStyle="Calculation">
+      <calculatedColumnFormula>IFERROR(VLOOKUP(Table8[[#This Row],[Name]], [5]!Table1[#Data], 3, FALSE), "")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -530,10 +925,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,6 +940,36 @@
       <c r="A1" t="s">
         <v>1</v>
       </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -564,13 +989,14 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -588,149 +1014,156 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [2]!Table1[#This Row], 2, FALSE), "")</f>
-        <v>Small Flat Bonus</v>
-      </c>
-      <c r="C2" s="1">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [2]!Table1[#This Row],3, FALSE), "")</f>
-        <v>2</v>
-      </c>
-      <c r="D2" s="1">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [2]!Table1[#This Row],3, FALSE), "")</f>
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Value]], [2]!Table1[#This Row],3, FALSE), "")</f>
+      <c r="A2" s="3"/>
+      <c r="B2" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [1]!Table1[#Data], 2, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [1]!Table1[#Data],3, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [1]!Table1[#Data],4, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="E2" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Value]], [1]!Table1[#This Row],3, FALSE), "")</f>
         <v/>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [2]!Table1[#This Row], 2, FALSE), "")</f>
-        <v/>
-      </c>
-      <c r="C3" s="1" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [2]!Table1[#This Row],3, FALSE), "")</f>
-        <v/>
-      </c>
-      <c r="D3" s="1" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [2]!Table1[#This Row],3, FALSE), "")</f>
+      <c r="A3" s="3"/>
+      <c r="B3" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [1]!Table1[#Data], 2, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [1]!Table1[#Data],3, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [1]!Table1[#Data],4, FALSE), "")</f>
         <v/>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [2]!Table1[#This Row], 2, FALSE), "")</f>
-        <v/>
-      </c>
-      <c r="C4" s="1" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [2]!Table1[#This Row],3, FALSE), "")</f>
-        <v/>
-      </c>
-      <c r="D4" s="1" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [2]!Table1[#This Row],3, FALSE), "")</f>
+      <c r="A4" s="3"/>
+      <c r="B4" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [1]!Table1[#Data], 2, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [1]!Table1[#Data],3, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [1]!Table1[#Data],4, FALSE), "")</f>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [2]!Table1[#This Row], 2, FALSE), "")</f>
-        <v/>
-      </c>
-      <c r="C5" s="1" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [2]!Table1[#This Row],3, FALSE), "")</f>
-        <v/>
-      </c>
-      <c r="D5" s="1" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [2]!Table1[#This Row],3, FALSE), "")</f>
+      <c r="A5" s="3"/>
+      <c r="B5" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [1]!Table1[#Data], 2, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [1]!Table1[#Data],3, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [1]!Table1[#Data],4, FALSE), "")</f>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [2]!Table1[#This Row], 2, FALSE), "")</f>
-        <v/>
-      </c>
-      <c r="C6" s="1" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [2]!Table1[#This Row],3, FALSE), "")</f>
-        <v/>
-      </c>
-      <c r="D6" s="1" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [2]!Table1[#This Row],3, FALSE), "")</f>
+      <c r="A6" s="3"/>
+      <c r="B6" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [1]!Table1[#Data], 2, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [1]!Table1[#Data],3, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [1]!Table1[#Data],4, FALSE), "")</f>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [2]!Table1[#This Row], 2, FALSE), "")</f>
-        <v/>
-      </c>
-      <c r="C7" s="1" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [2]!Table1[#This Row],3, FALSE), "")</f>
-        <v/>
-      </c>
-      <c r="D7" s="1" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [2]!Table1[#This Row],3, FALSE), "")</f>
+      <c r="A7" s="3"/>
+      <c r="B7" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [1]!Table1[#Data], 2, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [1]!Table1[#Data],3, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [1]!Table1[#Data],4, FALSE), "")</f>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [2]!Table1[#This Row], 2, FALSE), "")</f>
-        <v/>
-      </c>
-      <c r="C8" s="1" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [2]!Table1[#This Row],3, FALSE), "")</f>
-        <v/>
-      </c>
-      <c r="D8" s="1" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [2]!Table1[#This Row],3, FALSE), "")</f>
+      <c r="A8" s="3"/>
+      <c r="B8" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [1]!Table1[#Data], 2, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="C8" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [1]!Table1[#Data],3, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [1]!Table1[#Data],4, FALSE), "")</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [2]!Table1[#This Row], 2, FALSE), "")</f>
-        <v/>
-      </c>
-      <c r="C9" s="1" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [2]!Table1[#This Row],3, FALSE), "")</f>
-        <v/>
-      </c>
-      <c r="D9" s="1" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [2]!Table1[#This Row],3, FALSE), "")</f>
+      <c r="A9" s="3"/>
+      <c r="B9" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [1]!Table1[#Data], 2, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="C9" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [1]!Table1[#Data],3, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D9" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [1]!Table1[#Data],4, FALSE), "")</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [2]!Table1[#This Row], 2, FALSE), "")</f>
-        <v/>
-      </c>
-      <c r="C10" s="1" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [2]!Table1[#This Row],3, FALSE), "")</f>
-        <v/>
-      </c>
-      <c r="D10" s="1" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [2]!Table1[#This Row],3, FALSE), "")</f>
+      <c r="A10" s="3"/>
+      <c r="B10" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [1]!Table1[#Data], 2, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="C10" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [1]!Table1[#Data],3, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [1]!Table1[#Data],4, FALSE), "")</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [2]!Table1[#This Row], 2, FALSE), "")</f>
-        <v/>
-      </c>
-      <c r="C11" s="1" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [2]!Table1[#This Row],3, FALSE), "")</f>
-        <v/>
-      </c>
-      <c r="D11" s="1" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [2]!Table1[#This Row],3, FALSE), "")</f>
+      <c r="A11" s="3"/>
+      <c r="B11" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [1]!Table1[#Data], 2, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="C11" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [1]!Table1[#Data],3, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D11" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Name]], [1]!Table1[#Data],4, FALSE), "")</f>
         <v/>
       </c>
     </row>
@@ -749,36 +1182,583 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E3FBE9C-4F7F-41FD-A307-048280ADB39F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table15[[#This Row],[Name]], [3]!Table1[#Data], 2, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table15[[#This Row],[Name]], [3]!Table1[#Data], 3, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="E2" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table15[[#This Row],[Name]], [3]!Table1[#Data],4, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table15[[#This Row],[Name]], [3]!Table1[#Data], 2, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table15[[#This Row],[Name]], [3]!Table1[#Data], 3, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="E3" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table15[[#This Row],[Name]], [3]!Table1[#Data],4, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table15[[#This Row],[Name]], [3]!Table1[#Data], 2, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table15[[#This Row],[Name]], [3]!Table1[#Data], 3, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="E4" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table15[[#This Row],[Name]], [3]!Table1[#Data],4, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table15[[#This Row],[Name]], [3]!Table1[#Data], 2, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table15[[#This Row],[Name]], [3]!Table1[#Data], 3, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="E5" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table15[[#This Row],[Name]], [3]!Table1[#Data],4, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table15[[#This Row],[Name]], [3]!Table1[#Data], 2, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table15[[#This Row],[Name]], [3]!Table1[#Data], 3, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="E6" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table15[[#This Row],[Name]], [3]!Table1[#Data],4, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table15[[#This Row],[Name]], [3]!Table1[#Data], 2, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table15[[#This Row],[Name]], [3]!Table1[#Data], 3, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="E7" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table15[[#This Row],[Name]], [3]!Table1[#Data],4, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table15[[#This Row],[Name]], [3]!Table1[#Data], 2, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table15[[#This Row],[Name]], [3]!Table1[#Data], 3, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="E8" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table15[[#This Row],[Name]], [3]!Table1[#Data],4, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table15[[#This Row],[Name]], [3]!Table1[#Data], 2, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D9" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table15[[#This Row],[Name]], [3]!Table1[#Data], 3, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="E9" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table15[[#This Row],[Name]], [3]!Table1[#Data],4, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table15[[#This Row],[Name]], [3]!Table1[#Data], 2, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table15[[#This Row],[Name]], [3]!Table1[#Data], 3, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="E10" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table15[[#This Row],[Name]], [3]!Table1[#Data],4, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table15[[#This Row],[Name]], [3]!Table1[#Data], 2, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D11" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table15[[#This Row],[Name]], [3]!Table1[#Data], 3, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="E11" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table15[[#This Row],[Name]], [3]!Table1[#Data],4, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B11" xr:uid="{F0C88313-C207-4C82-AA2E-4AAF06359B23}">
+      <formula1>DamagesForList</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1934DDB9-8551-453B-B832-0C47C733A6D9}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table156[[#This Row],[Name]], [4]!Table1[#Data], 2, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table156[[#This Row],[Name]], [4]!Table1[#Data], 3, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table156[[#This Row],[Name]], [4]!Table1[#Data], 2, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table156[[#This Row],[Name]], [4]!Table1[#Data], 3, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table156[[#This Row],[Name]], [4]!Table1[#Data], 2, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table156[[#This Row],[Name]], [4]!Table1[#Data], 3, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table156[[#This Row],[Name]], [4]!Table1[#Data], 2, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table156[[#This Row],[Name]], [4]!Table1[#Data], 3, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table156[[#This Row],[Name]], [4]!Table1[#Data], 2, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table156[[#This Row],[Name]], [4]!Table1[#Data], 3, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table156[[#This Row],[Name]], [4]!Table1[#Data], 2, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table156[[#This Row],[Name]], [4]!Table1[#Data], 3, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table156[[#This Row],[Name]], [4]!Table1[#Data], 2, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table156[[#This Row],[Name]], [4]!Table1[#Data], 3, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table156[[#This Row],[Name]], [4]!Table1[#Data], 2, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D9" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table156[[#This Row],[Name]], [4]!Table1[#Data], 3, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table156[[#This Row],[Name]], [4]!Table1[#Data], 2, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table156[[#This Row],[Name]], [4]!Table1[#Data], 3, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table156[[#This Row],[Name]], [4]!Table1[#Data], 2, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D11" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table156[[#This Row],[Name]], [4]!Table1[#Data], 3, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B11" xr:uid="{BFC8CA92-C0B4-4AA6-B5FD-FF43D2BDFFAA}">
+      <formula1>HealingsForList</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEE09279-ECF7-48FE-A5F2-93E5FE6E21B4}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table8[[#This Row],[Name]], [5]!Table1[#Data], 2, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table8[[#This Row],[Name]], [5]!Table1[#Data], 3, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table8[[#This Row],[Name]], [5]!Table1[#Data], 2, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table8[[#This Row],[Name]], [5]!Table1[#Data], 3, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table8[[#This Row],[Name]], [5]!Table1[#Data], 2, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table8[[#This Row],[Name]], [5]!Table1[#Data], 3, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table8[[#This Row],[Name]], [5]!Table1[#Data], 2, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table8[[#This Row],[Name]], [5]!Table1[#Data], 3, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table8[[#This Row],[Name]], [5]!Table1[#Data], 2, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table8[[#This Row],[Name]], [5]!Table1[#Data], 3, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table8[[#This Row],[Name]], [5]!Table1[#Data], 2, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table8[[#This Row],[Name]], [5]!Table1[#Data], 3, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table8[[#This Row],[Name]], [5]!Table1[#Data], 2, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table8[[#This Row],[Name]], [5]!Table1[#Data], 3, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table8[[#This Row],[Name]], [5]!Table1[#Data], 2, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D9" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table8[[#This Row],[Name]], [5]!Table1[#Data], 3, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table8[[#This Row],[Name]], [5]!Table1[#Data], 2, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f>IFERROR(VLOOKUP(Table8[[#This Row],[Name]], [5]!Table1[#Data], 3, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7" t="str">
+        <f>IFERROR(VLOOKUP(Table8[[#This Row],[Name]], [5]!Table1[#Data], 2, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D11" s="7" t="str">
+        <f>IFERROR(VLOOKUP(Table8[[#This Row],[Name]], [5]!Table1[#Data], 3, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B11" xr:uid="{469CC294-6398-489B-98E5-618CF6A42189}">
+      <formula1>TurnMovesForList</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>